--- a/medicine/Enfance/Méthode_de_Mofenson/Méthode_de_Mofenson.xlsx
+++ b/medicine/Enfance/Méthode_de_Mofenson/Méthode_de_Mofenson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9thode_de_Mofenson</t>
+          <t>Méthode_de_Mofenson</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La méthode de Mofenson est une technique de libération des voies aériennes sur le nourrisson. Elle est utilisée lorsqu'un objet est coincé dans la gorge du nourrisson et l'empêche totalement de respirer (on n'entend aucun son, ni cri, ni pleur).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9thode_de_Mofenson</t>
+          <t>Méthode_de_Mofenson</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Démarche</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon le consensus du Conseil européen de réanimation (European Resuscitation Council, ERC)[1], enseignée notamment en France[2], la marche à suivre lorsque l'on voit un nourrisson conscient étouffer est :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le consensus du Conseil européen de réanimation (European Resuscitation Council, ERC), enseignée notamment en France, la marche à suivre lorsque l'on voit un nourrisson conscient étouffer est :
 Reconnaître la situation: contexte — l'enfant est en train de manger ou joue avec de petits objets —, comportement de la victime — soudain, l'enfant n'émet plus de son, essaie de tousser sans succès, s'agite, puis, si l'on ne fait rien, il devient bleu et perd connaissance.
 Évaluer de l'importance de l'étouffement: l'enfant n'émet aucun son.
 Donner une à cinq tapes dans le dos (méthode de Mofenson).
